--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1478350.049466211</v>
+        <v>1476097.969755003</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>77.97736515780272</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>108.2462644793336</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>148.5873298926978</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>108.549119697934</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>396.2448075007317</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>357.5738180516813</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>81.58403242496148</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>212.2067041414035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>41.4137907554481</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>27.55805524026523</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>1.89717711244757</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>101.140482322033</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>-6.97563488453549e-12</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936275</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>201.2773066778176</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>18.16423677622388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>37.41782514684017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833647</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936177</v>
       </c>
       <c r="F25" t="n">
-        <v>145.421048022933</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>49.33106662724936</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8253826161897768</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890381</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>38.61213096654735</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>112.5284434523267</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936148</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>107.4021082756226</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890387</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>186.6498836607803</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4144,10 +4144,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2038.144201386632</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1669.181684446221</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1310.91598583947</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4331,13 +4331,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2315.404380360518</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450754</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
@@ -4407,52 +4407,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271517</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143257</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.539111149739</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>905.5765942093278</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>905.5765942093278</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>519.7883416110835</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213861</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.570363233848</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C7" t="n">
-        <v>629.570363233848</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>295.1374167748928</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>295.1374167748928</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>857.5599141318653</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X7" t="n">
-        <v>629.570363233848</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y7" t="n">
-        <v>629.570363233848</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1257.755181644084</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>888.7926647036722</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>530.5269660969217</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>565.4135772219082</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>150.3411270669047</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3091.791654558782</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2760.728767215212</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2407.960111945097</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2034.494353684017</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.355021708206</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,10 +4887,10 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>844.171363847817</v>
+        <v>681.6115596545852</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>512.6753767266783</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>362.5587373143426</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>214.6456437319495</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>214.6456437319495</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143257</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1638.191681214136</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.774511177176</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="X10" t="n">
-        <v>1246.612407821587</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="Y10" t="n">
-        <v>1025.819828678057</v>
+        <v>681.6115596545852</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1702.079034721981</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143764</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121727</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121727</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142624</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142624</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.930277414128</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1150.52355647915</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536398</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257329</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133971</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E25" t="n">
-        <v>407.902709831004</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.30966972741</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.51709058388</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.21291626627</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2074.122646505557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765927</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420832</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2043.673064443773</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1754.59783778797</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1499.913349582083</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1210.496179545123</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6689,61 +6689,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098192</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819123</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695765</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3896878871834</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718567</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681606</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783589</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640059</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7023,19 +7023,19 @@
         <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1368.154262550759</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1920.063992790046</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2343.687142285114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2338.476105524076</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524076</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868274</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662387</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625427</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.12601365259631</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>50.86033664601439</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294901</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856136</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>268.0202376130202</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788741</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345295147</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>176.3785887617878</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393192</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.003342051665</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>32.89260457060456</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.44677382459756</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>73.62417772602204</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>39.05977172825689</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26032,10 +26032,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914539</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914539</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914539</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
@@ -26323,16 +26323,16 @@
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062537</v>
@@ -26341,19 +26341,19 @@
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="G4" t="n">
         <v>10557.0882867812</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1013271.703181941</v>
       </c>
       <c r="C6" t="n">
-        <v>315473.0425456513</v>
+        <v>315473.0425456511</v>
       </c>
       <c r="D6" t="n">
-        <v>315473.0425456513</v>
+        <v>315473.0425456511</v>
       </c>
       <c r="E6" t="n">
-        <v>67374.54488821063</v>
+        <v>67339.806962774</v>
       </c>
       <c r="F6" t="n">
-        <v>392787.0066955653</v>
+        <v>392752.2687701299</v>
       </c>
       <c r="G6" t="n">
-        <v>392787.0066955654</v>
+        <v>392752.26877013</v>
       </c>
       <c r="H6" t="n">
-        <v>392787.0066955654</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="I6" t="n">
-        <v>392787.0066955654</v>
+        <v>392752.2687701296</v>
       </c>
       <c r="J6" t="n">
-        <v>175255.8042982878</v>
+        <v>175221.0663728521</v>
       </c>
       <c r="K6" t="n">
-        <v>392787.0066955654</v>
+        <v>392752.2687701298</v>
       </c>
       <c r="L6" t="n">
-        <v>392787.0066955654</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="M6" t="n">
-        <v>307731.9787600535</v>
+        <v>307697.2408346177</v>
       </c>
       <c r="N6" t="n">
-        <v>392787.0066955654</v>
+        <v>392752.2687701296</v>
       </c>
       <c r="O6" t="n">
-        <v>392787.0066955653</v>
+        <v>392752.2687701296</v>
       </c>
       <c r="P6" t="n">
-        <v>392787.0066955654</v>
+        <v>392752.2687701295</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>303.953004914459</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>240.9947042380794</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18.65949120593004</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.1605356911031</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.63123824097977</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.66412060437233</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>84.44177583406675</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>74.31629419518751</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>253.1939736318724</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>223.4371167186368</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.1286311465807</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>124.5691730670041</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.863403763104596e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.571301715478522e-13</v>
       </c>
     </row>
     <row r="20">
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29205,55 +29205,55 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>-1.696776052995119e-12</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29964,7 +29964,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-2.98509025987305e-12</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-3.173620932428064e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724546</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639554</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>150.7833302198384</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>508.3747716989719</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>209.9499448422525</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>353.3934907042774</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33023,31 +33023,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>382.1329742631541</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33193,7 +33193,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>345.6771571865338</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>351.4708102230528</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>210.3948924365567</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>171.5999003578897</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>171.5999003578897</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>159.0482712280102</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962517</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>23.94570355317167</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>369.8203919190977</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>71.39556506237828</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>219.4190832899471</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36671,31 +36671,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>248.1585668488238</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>207.1227774066596</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.4890361370313</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096303</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>68.26085851453838</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>29.46586643587134</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>29.46586643587134</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
